--- a/SeleniumAutomation/TestData.xlsx
+++ b/SeleniumAutomation/TestData.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Pwd</t>
-  </si>
-  <si>
-    <t>endrjukiller@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -378,7 +375,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,26 +392,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>166666</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>166666</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>